--- a/helper/开发计划.xlsx
+++ b/helper/开发计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>住户管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,35 +378,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,11 +727,11 @@
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="41.875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="41.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -745,11 +756,14 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -770,9 +784,10 @@
       <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="15"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -791,11 +806,12 @@
       <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="15"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -804,7 +820,7 @@
       <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="15">
@@ -816,20 +832,21 @@
       <c r="H4" s="15">
         <v>4</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="15">
         <v>20171030</v>
       </c>
@@ -839,20 +856,21 @@
       <c r="H5" s="15">
         <v>3</v>
       </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
+      <c r="I5" s="15"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="15">
         <v>20171102</v>
       </c>
@@ -862,47 +880,50 @@
       <c r="H6" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27" t="s">
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="27" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="9">
         <v>20171105</v>
       </c>
@@ -912,13 +933,14 @@
       <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
+      <c r="I9" s="15"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="25">
         <v>4</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -927,7 +949,7 @@
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="9">
@@ -939,20 +961,23 @@
       <c r="H10" s="9">
         <v>3</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="9">
         <v>20171026</v>
       </c>
@@ -962,15 +987,16 @@
       <c r="H11" s="9">
         <v>6</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="24">
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -979,7 +1005,7 @@
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="9">
@@ -991,18 +1017,19 @@
       <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="12">
         <v>20171031</v>
       </c>
@@ -1012,18 +1039,19 @@
       <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="12">
         <v>20171101</v>
       </c>
@@ -1033,15 +1061,16 @@
       <c r="H14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="24">
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="25">
         <v>6</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1050,7 +1079,7 @@
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="9">
@@ -1062,20 +1091,21 @@
       <c r="H15" s="9">
         <v>2</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="12">
         <v>20171103</v>
       </c>
@@ -1085,20 +1115,21 @@
       <c r="H16" s="9">
         <v>1</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="9">
         <v>20171104</v>
       </c>
@@ -1108,15 +1139,16 @@
       <c r="H17" s="9">
         <v>4</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="24">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="25">
         <v>7</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1137,13 +1169,14 @@
       <c r="H18" s="9">
         <v>4</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="15"/>
+      <c r="J18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1162,13 +1195,14 @@
       <c r="H19" s="9">
         <v>2</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
@@ -1187,13 +1221,14 @@
       <c r="H20" s="9">
         <v>2</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="15"/>
+      <c r="J20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
@@ -1212,12 +1247,13 @@
       <c r="H21" s="9">
         <v>3</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="25">
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="32">
         <v>8</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1235,10 +1271,11 @@
       <c r="H22" s="15">
         <v>2</v>
       </c>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="32"/>
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1254,28 +1291,29 @@
       <c r="H23" s="15">
         <v>5</v>
       </c>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I23" s="15"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="E4:E9"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/helper/开发计划.xlsx
+++ b/helper/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -381,6 +381,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,9 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +715,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +811,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -820,7 +820,7 @@
       <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="15">
@@ -839,14 +839,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="15">
         <v>20171030</v>
       </c>
@@ -860,17 +860,17 @@
       <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="15">
         <v>20171102</v>
       </c>
@@ -880,18 +880,18 @@
       <c r="H6" s="9">
         <v>3</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -899,15 +899,15 @@
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -915,15 +915,15 @@
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="9">
         <v>20171105</v>
       </c>
@@ -937,10 +937,10 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -949,7 +949,7 @@
       <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="9">
@@ -969,15 +969,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="9">
         <v>20171026</v>
       </c>
@@ -993,10 +993,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1005,7 +1005,7 @@
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="9">
@@ -1017,19 +1017,21 @@
       <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="12">
         <v>20171031</v>
       </c>
@@ -1039,19 +1041,21 @@
       <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="12">
         <v>20171101</v>
       </c>
@@ -1067,10 +1071,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="25">
+      <c r="A15" s="26">
         <v>6</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1079,7 +1083,7 @@
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="9">
@@ -1097,15 +1101,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="12">
         <v>20171103</v>
       </c>
@@ -1121,15 +1125,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="9">
         <v>20171104</v>
       </c>
@@ -1145,10 +1149,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="25">
+      <c r="A18" s="26">
         <v>7</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1175,8 +1179,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1201,8 +1205,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
@@ -1227,8 +1231,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
@@ -1253,7 +1257,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+      <c r="A22" s="33">
         <v>8</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1275,7 +1279,7 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>

--- a/helper/开发计划.xlsx
+++ b/helper/开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成（缺少微信发送方法）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -387,6 +391,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,12 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +815,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -820,7 +824,7 @@
       <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="15">
@@ -839,14 +843,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="15">
         <v>20171030</v>
       </c>
@@ -863,14 +867,14 @@
       <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="15">
         <v>20171102</v>
       </c>
@@ -884,14 +888,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -900,14 +904,14 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -916,14 +920,14 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="9">
         <v>20171105</v>
       </c>
@@ -940,7 +944,7 @@
       <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -970,7 +974,7 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1000,7 @@
       <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1024,7 +1028,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="11" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1052,7 @@
     </row>
     <row r="14" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1069,9 @@
       <c r="H14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="J14" s="20" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1080,7 @@
       <c r="A15" s="26">
         <v>6</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1095,14 +1101,16 @@
       <c r="H15" s="9">
         <v>2</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="J15" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1119,14 +1127,16 @@
       <c r="H16" s="9">
         <v>1</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1153,9 @@
       <c r="H17" s="9">
         <v>4</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="J17" s="20" t="s">
         <v>27</v>
       </c>
@@ -1152,7 +1164,7 @@
       <c r="A18" s="26">
         <v>7</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1180,7 +1192,7 @@
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1206,7 +1218,7 @@
     </row>
     <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1244,7 @@
     </row>
     <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1269,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="33">
+      <c r="A22" s="27">
         <v>8</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1279,7 +1291,7 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
@@ -1303,21 +1315,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="E4:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
